--- a/Documentos UdeC Docs/Formula Recomendacion.xlsx
+++ b/Documentos UdeC Docs/Formula Recomendacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\OneDrive\Documents\GitHub\UdeCDocs\Documentos UdeC Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C86CE75A-32EA-431A-BCDE-C4668639F07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63F161B-F967-4FB9-B582-0980F057607C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{866A9670-2806-4BCE-AAD9-6B0F6496E910}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{866A9670-2806-4BCE-AAD9-6B0F6496E910}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -220,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,15 +1095,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1431,7 +1431,7 @@
   <dimension ref="I6:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8:V8"/>
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,35 +1464,35 @@
     </row>
     <row r="7" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I7" s="14">
-        <f>I23/100</f>
+        <f t="shared" ref="I7:P7" si="0">I23/100</f>
         <v>3.76</v>
       </c>
       <c r="J7" s="14">
-        <f>J23/100</f>
+        <f t="shared" si="0"/>
         <v>7.27</v>
       </c>
       <c r="K7" s="14">
-        <f>K23/100</f>
+        <f t="shared" si="0"/>
         <v>16.79</v>
       </c>
       <c r="L7" s="14">
-        <f>L23/100</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="M7" s="14">
-        <f>M23/100</f>
+        <f t="shared" si="0"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="N7" s="14">
-        <f>N23/100</f>
+        <f t="shared" si="0"/>
         <v>34.79</v>
       </c>
       <c r="O7" s="14">
-        <f>O23/100</f>
+        <f t="shared" si="0"/>
         <v>1.19</v>
       </c>
       <c r="P7" s="14">
-        <f>P23/100</f>
+        <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
       <c r="X7">
@@ -1601,19 +1601,19 @@
         <v>-10</v>
       </c>
       <c r="M12" s="12">
-        <f t="shared" ref="M12:P12" si="0">M8-M10</f>
+        <f t="shared" ref="M12:P12" si="1">M8-M10</f>
         <v>-35</v>
       </c>
       <c r="N12" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="O12" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="P12" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -1633,31 +1633,31 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" ref="J15:L15" si="1">J10/J8</f>
+        <f t="shared" ref="J15:L15" si="2">J10/J8</f>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M15" s="12">
-        <f t="shared" ref="M15:P15" si="2">M10/M8</f>
+        <f t="shared" ref="M15:P15" si="3">M10/M8</f>
         <v>2</v>
       </c>
       <c r="N15" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7241379310344827E-2</v>
       </c>
       <c r="O15" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="P15" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -1677,31 +1677,31 @@
         <v>240</v>
       </c>
       <c r="J17" s="12">
-        <f t="shared" ref="J17:L17" si="3">J8+J10</f>
+        <f t="shared" ref="J17:L17" si="4">J8+J10</f>
         <v>27</v>
       </c>
       <c r="K17" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="L17" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="M17" s="12">
-        <f t="shared" ref="M17:P17" si="4">M8+M10</f>
+        <f t="shared" ref="M17:P17" si="5">M8+M10</f>
         <v>105</v>
       </c>
       <c r="N17" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="O17" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="P17" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
     </row>
@@ -1721,23 +1721,23 @@
         <v>336</v>
       </c>
       <c r="J19" s="13">
-        <f t="shared" ref="J19:L19" si="5">J17/J15</f>
+        <f t="shared" ref="J19:L19" si="6">J17/J15</f>
         <v>702</v>
       </c>
       <c r="K19" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1640</v>
       </c>
       <c r="L19" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="M19" s="13">
-        <f t="shared" ref="M19:P19" si="6">M17/M15</f>
+        <f t="shared" ref="M19:P19" si="7">M17/M15</f>
         <v>52.5</v>
       </c>
       <c r="N19" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3422</v>
       </c>
       <c r="O19" s="13">
@@ -1745,7 +1745,7 @@
         <v>110</v>
       </c>
       <c r="P19" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>375</v>
       </c>
     </row>
@@ -1765,23 +1765,23 @@
         <v>476</v>
       </c>
       <c r="J21" s="12">
-        <f t="shared" ref="J21:L21" si="7">J19+J8</f>
+        <f t="shared" ref="J21:L21" si="8">J19+J8</f>
         <v>728</v>
       </c>
       <c r="K21" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1680</v>
       </c>
       <c r="L21" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="M21" s="12">
-        <f t="shared" ref="M21:P21" si="8">M19+M8</f>
+        <f t="shared" ref="M21:P21" si="9">M19+M8</f>
         <v>87.5</v>
       </c>
       <c r="N21" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3480</v>
       </c>
       <c r="O21" s="12">
@@ -1789,7 +1789,7 @@
         <v>120</v>
       </c>
       <c r="P21" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>525</v>
       </c>
     </row>
@@ -1809,23 +1809,23 @@
         <v>376</v>
       </c>
       <c r="J23" s="12">
-        <f t="shared" ref="J23:L23" si="9">IF(J21-J10 &lt; 0, 0, J21-J10)</f>
+        <f t="shared" ref="J23:L23" si="10">IF(J21-J10 &lt; 0, 0, J21-J10)</f>
         <v>727</v>
       </c>
       <c r="K23" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1679</v>
       </c>
       <c r="L23" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="M23" s="12">
-        <f t="shared" ref="M23:P23" si="10">IF(M21-M10 &lt; 0, 0, M21-M10)</f>
+        <f t="shared" ref="M23:P23" si="11">IF(M21-M10 &lt; 0, 0, M21-M10)</f>
         <v>17.5</v>
       </c>
       <c r="N23" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3479</v>
       </c>
       <c r="O23" s="12">
@@ -1833,7 +1833,7 @@
         <v>119</v>
       </c>
       <c r="P23" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>425</v>
       </c>
     </row>
@@ -1843,31 +1843,31 @@
         <v>3.76</v>
       </c>
       <c r="J28">
-        <f t="shared" ref="J28:P28" si="11">((J10+J8)/(J10/J8)+J8-J10)/100</f>
+        <f t="shared" ref="J28:P28" si="12">((J10+J8)/(J10/J8)+J8-J10)/100</f>
         <v>7.27</v>
       </c>
       <c r="K28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16.79</v>
       </c>
       <c r="L28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="M28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="N28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.79</v>
       </c>
       <c r="O28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.19</v>
       </c>
       <c r="P28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.25</v>
       </c>
     </row>
